--- a/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
@@ -451,435 +451,581 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>006104</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>华泰柏瑞量化智慧灵活配置混合C</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>92.33</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1.38</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>010246</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>93.45</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1.16</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>163110</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001244</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>460009</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005126</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银河量化稳进混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006048</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007413</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010153</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010154</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005055</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006532</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -889,7 +1035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1056,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,26 +1086,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005000</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康泉林量化价值精选混合A</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -958,26 +1124,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005111</t>
+          <t>009932</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康泉林量化价值精选混合C</t>
+          <t>永赢稳健增长一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>14.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -986,26 +1162,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004142</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合A</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1014,26 +1200,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004143</t>
+          <t>001532</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合C</t>
+          <t>华安文体健康主题灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1042,26 +1238,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002906</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票A</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1070,26 +1276,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002907</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票C</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1098,26 +1314,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006048</t>
+          <t>002906</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城中证500指数增强A</t>
+          <t>南方中证500量化增强股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1126,26 +1352,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007413</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长城中证500指数增强C</t>
+          <t>泰达宏利中证500指数增强（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1154,26 +1390,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009932</t>
+          <t>009613</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>永赢稳健增长一年持有期混合</t>
+          <t>上银中证500指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22.26</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1182,26 +1428,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006255</t>
+          <t>512040</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中邮中证价值回报量化策略指数A</t>
+          <t>富国中证价值ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1210,26 +1466,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006256</t>
+          <t>002907</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中邮中证价值回报量化策略指数C</t>
+          <t>南方中证500量化增强股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1238,26 +1504,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>005000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>泰康泉林量化价值精选混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1266,26 +1542,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>512040</t>
+          <t>006048</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国中证价值ETF</t>
+          <t>长城中证500指数增强A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>98.57</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1294,26 +1580,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>006255</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>中邮中证价值回报量化策略指数A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>98.47</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1322,26 +1618,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>515510</t>
+          <t>009614</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实中证500成长估值ETF</t>
+          <t>上银中证500指数增强C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1350,26 +1656,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001532</t>
+          <t>590007</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华安文体健康主题灵活配置混合</t>
+          <t>中邮中证500指数增强A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1378,26 +1694,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>590007</t>
+          <t>515510</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强A</t>
+          <t>嘉实中证500成长估值ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1406,26 +1732,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008124</t>
+          <t>007413</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强C</t>
+          <t>长城中证500指数增强C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1434,26 +1770,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>005111</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>泰达宏利中证500指数增强（LOF）</t>
+          <t>泰康泉林量化价值精选混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1462,26 +1808,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>006256</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>中邮中证价值回报量化策略指数C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1490,26 +1846,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009613</t>
+          <t>008124</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上银中证500指数增强A</t>
+          <t>中邮中证500指数增强C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.96</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1518,26 +1884,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009614</t>
+          <t>004143</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上银中证500指数增强C</t>
+          <t>招商盛合灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.96</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1919,4 +1920,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4115</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0406</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2166,4 +2167,666 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3613</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商信用增强债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001752</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商信用增强债券C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6555</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5712</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3173</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>58.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>58.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2829,4 +2830,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2838,7 +2839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2849,17 +2850,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2869,14 +2890,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.130000000000001</v>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2885,14 +2928,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.01</v>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6500</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2901,14 +2966,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.99</v>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6486</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2917,13 +3004,491 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3901</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2991</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3387,7 +3388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3398,17 +3399,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3418,14 +3439,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.630000000000001</v>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3034</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3434,14 +3477,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.130000000000001</v>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3450,14 +3515,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.01</v>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3466,14 +3553,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.99</v>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5179</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3482,13 +3591,813 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4498</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3794</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2867</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4280,7 +4281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4291,17 +4292,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4311,14 +4332,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.07</v>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4327,14 +4370,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.630000000000001</v>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4343,14 +4408,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.130000000000001</v>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4359,14 +4446,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.01</v>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -4375,14 +4484,150 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.99</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="7">
@@ -4391,13 +4636,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>8.07</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>8.630000000000001</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>9.130000000000001</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>5.01</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.99</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -600,6 +617,212 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003845</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003846</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安丰恒灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -843,7 +1066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1735,7 +1958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2283,7 +2506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2945,7 +3168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3191,7 +3414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4083,7 +4306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
+++ b/数据整理/stocks/A股/上证主板/600507-方大特钢.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>8.07</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>8.630000000000001</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>9.130000000000001</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>5.01</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.99</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,614 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>14</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1218,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159617</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证智选500价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014354</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方欣冉九个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014355</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方欣冉九个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -822,7 +1707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1066,7 +1951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1958,7 +2843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2506,7 +3391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3168,7 +4053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3414,7 +4299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4304,588 +5189,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>460009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0838</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001244</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0834</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0756</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>163110</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0738</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005055</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0477</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010153</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0321</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006048</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0297</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010154</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007413</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005126</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银河量化稳进混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006104</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010246</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006532</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>